--- a/spliced/struggle/2023-04-11_10-32-12/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-32-12/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1049878001213073</v>
+        <v>-0.2798952907323835</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1824674848467111</v>
+        <v>-0.2011211831122636</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2606724696233869</v>
+        <v>-0.2037543449550868</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1577559560537338</v>
+        <v>-0.380110889673233</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.740368664264679</v>
+        <v>-2.916423320770264</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2956587672233581</v>
+        <v>-0.522595226764679</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2798952907323835</v>
+        <v>0.07621550559997564</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2011211831122636</v>
+        <v>0.3202240578830243</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2037543449550868</v>
+        <v>-1.714594541117549</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.380110889673233</v>
+        <v>-0.2550362348556518</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.916423320770264</v>
+        <v>-3.585931777954102</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.522595226764679</v>
+        <v>1.043205142021179</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07621550559997564</v>
+        <v>1.214714780449869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3202240578830243</v>
+        <v>-0.2680620010942265</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.714594541117549</v>
+        <v>-5.130570538342003</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2550362348556518</v>
+        <v>0.2286163121461868</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.585931777954102</v>
+        <v>-2.957656860351562</v>
       </c>
       <c r="H4" t="n">
-        <v>1.043205142021179</v>
+        <v>1.703550457954407</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.214714780449869</v>
+        <v>2.21673782914877</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2680620010942265</v>
+        <v>-2.121318969875573</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.130570538342003</v>
+        <v>-6.365980595350262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2286163121461868</v>
+        <v>-0.0294742472469806</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.957656860351562</v>
+        <v>-2.758056640625</v>
       </c>
       <c r="H5" t="n">
-        <v>1.703550457954407</v>
+        <v>1.507310032844544</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.21673782914877</v>
+        <v>1.646873444318771</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.121318969875573</v>
+        <v>-0.9547826964408157</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.365980595350262</v>
+        <v>-2.861810609698295</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0294742472469806</v>
+        <v>0.2777909636497497</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.758056640625</v>
+        <v>0.1227839142084121</v>
       </c>
       <c r="H6" t="n">
-        <v>1.507310032844544</v>
+        <v>0.2632829248905182</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.646873444318771</v>
+        <v>-1.365792244672773</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9547826964408157</v>
+        <v>-0.1524508148431776</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.861810609698295</v>
+        <v>-1.155832886695863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2777909636497497</v>
+        <v>0.5624541640281677</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1227839142084121</v>
+        <v>3.851505279541016</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2632829248905182</v>
+        <v>-0.9796751141548156</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.365792244672773</v>
+        <v>-5.90024196356535</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1524508148431776</v>
+        <v>-0.5142916264012455</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.155832886695863</v>
+        <v>2.305023960769181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5624541640281677</v>
+        <v>-0.4262312352657318</v>
       </c>
       <c r="G8" t="n">
-        <v>3.851505279541016</v>
+        <v>4.981453418731689</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9796751141548156</v>
+        <v>-0.9717338681221008</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.90024196356535</v>
+        <v>-3.965735837817196</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5142916264012455</v>
+        <v>-0.6069814283400773</v>
       </c>
       <c r="E9" t="n">
-        <v>2.305023960769181</v>
+        <v>-1.651228621602052</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4262312352657318</v>
+        <v>-0.7962628602981567</v>
       </c>
       <c r="G9" t="n">
-        <v>4.981453418731689</v>
+        <v>4.429689407348633</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.9717338681221008</v>
+        <v>0.3517056703567505</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.965735837817196</v>
+        <v>-5.797070525586607</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6069814283400773</v>
+        <v>-1.400326563976706</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.651228621602052</v>
+        <v>1.329120457172396</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7962628602981567</v>
+        <v>-0.942259669303894</v>
       </c>
       <c r="G10" t="n">
-        <v>4.429689407348633</v>
+        <v>2.608700037002563</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3517056703567505</v>
+        <v>0.6546948552131653</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.797070525586607</v>
+        <v>-1.573704838752743</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.400326563976706</v>
+        <v>-1.781807705760002</v>
       </c>
       <c r="E11" t="n">
-        <v>1.329120457172396</v>
+        <v>1.208315253257751</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.942259669303894</v>
+        <v>-0.8762862086296082</v>
       </c>
       <c r="G11" t="n">
-        <v>2.608700037002563</v>
+        <v>1.198364853858948</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6546948552131653</v>
+        <v>0.3744603991508484</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.573704838752743</v>
+        <v>-1.48451391607523</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.781807705760002</v>
+        <v>-2.143217463046312</v>
       </c>
       <c r="E12" t="n">
-        <v>1.208315253257751</v>
+        <v>-4.305671475827694</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8762862086296082</v>
+        <v>-0.3497203588485718</v>
       </c>
       <c r="G12" t="n">
-        <v>1.198364853858948</v>
+        <v>-0.912632703781128</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3744603991508484</v>
+        <v>-0.2125810980796814</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.48451391607523</v>
+        <v>-3.191123038530348</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.143217463046312</v>
+        <v>-1.04998478293419</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.305671475827694</v>
+        <v>-3.277032032608988</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3497203588485718</v>
+        <v>1.418276429176331</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.912632703781128</v>
+        <v>-3.182302474975586</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2125810980796814</v>
+        <v>-0.7964155673980713</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3.191123038530348</v>
+        <v>-2.79414886981249</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.04998478293419</v>
+        <v>1.120455805212256</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.277032032608988</v>
+        <v>-3.891929678618904</v>
       </c>
       <c r="F14" t="n">
-        <v>1.418276429176331</v>
+        <v>0.7744244337081909</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.182302474975586</v>
+        <v>-4.472449779510498</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.7964155673980713</v>
+        <v>0.1556179225444793</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.79414886981249</v>
+        <v>-0.3785691261291502</v>
       </c>
       <c r="D15" t="n">
-        <v>1.120455805212256</v>
+        <v>-0.5515228509902954</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.891929678618904</v>
+        <v>-5.506646633148193</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7744244337081909</v>
+        <v>0.039248090237379</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.472449779510498</v>
+        <v>-4.096309661865234</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1556179225444793</v>
+        <v>0.9094256162643432</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.3785691261291502</v>
+        <v>0.511223681271077</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5515228509902954</v>
+        <v>-3.341538593173027</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.506646633148193</v>
+        <v>-3.347421273589136</v>
       </c>
       <c r="F16" t="n">
-        <v>0.039248090237379</v>
+        <v>0.1157589629292488</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.096309661865234</v>
+        <v>-3.650377988815308</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9094256162643432</v>
+        <v>0.6218608021736145</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.511223681271077</v>
+        <v>-1.899449691176408</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.341538593173027</v>
+        <v>-2.177598688751465</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.347421273589136</v>
+        <v>0.188652187585828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1157589629292488</v>
+        <v>0.1786780804395675</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.650377988815308</v>
+        <v>-0.7522805333137512</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6218608021736145</v>
+        <v>0.2764165103435516</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.899449691176408</v>
+        <v>-4.877644158899785</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.177598688751465</v>
+        <v>-0.1642134003341204</v>
       </c>
       <c r="E18" t="n">
-        <v>0.188652187585828</v>
+        <v>1.343364715576172</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0583376325666904</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7522805333137512</v>
+        <v>4.005901336669922</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2764165103435516</v>
+        <v>-1.094670534133911</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4.877644158899785</v>
+        <v>-5.74425581097603</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1642134003341204</v>
+        <v>-0.5421471670269949</v>
       </c>
       <c r="E19" t="n">
-        <v>1.343364715576172</v>
+        <v>1.297248423099513</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0583376325666904</v>
+        <v>0.1313360333442688</v>
       </c>
       <c r="G19" t="n">
-        <v>4.005901336669922</v>
+        <v>5.505575656890869</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.094670534133911</v>
+        <v>-0.8086328506469727</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5.74425581097603</v>
+        <v>-6.533521950244904</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5421471670269949</v>
+        <v>-0.2819428481161567</v>
       </c>
       <c r="E20" t="n">
-        <v>1.297248423099513</v>
+        <v>0.1814587861299474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1313360333442688</v>
+        <v>-0.5644394755363464</v>
       </c>
       <c r="G20" t="n">
-        <v>5.505575656890869</v>
+        <v>4.288732051849365</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.8086328506469727</v>
+        <v>0.6246097087860107</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-6.533521950244904</v>
+        <v>-5.779280513524995</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2819428481161567</v>
+        <v>-3.271673738956447</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1814587861299474</v>
+        <v>4.346601516008363</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5644394755363464</v>
+        <v>-0.2765692472457886</v>
       </c>
       <c r="G21" t="n">
-        <v>4.288732051849365</v>
+        <v>2.626567840576172</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6246097087860107</v>
+        <v>0.6087272167205811</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.140387788414934</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.259726375341407</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.785581156611421</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.3174972236156463</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.27487576007843</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1149953827261924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.632258296012878</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6425724923610687</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.22618693113327</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.2593123018741607</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.741895854473114</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.290313720703125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.271841421723368</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.07577018067240526</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.077775649726385</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6250678896903992</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3.214983701705933</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.8246681094169617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.740465611219407</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.2502757757902145</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.230584308505059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2973386645317077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.603633403778076</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0426078513264656</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.173786669969556</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.206141140311958</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.999948702752588</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.3110831379890442</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4.220009803771973</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.416138410568237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.527452439069747</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.933494433760643</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.995455801486972</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2417499274015426</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3.320205211639404</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.446528911590576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.818732134997842</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.367858927696945</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.861171409487724</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3194825351238251</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.44180828332901</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5250386595726013</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.338251754641532</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.358771674335002</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.811524987220763</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0740674138069152</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.8290696144104</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.7684684991836548</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.003720842301852</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.2583636995404971</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.431181490421301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3081815242767334</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.233893394470215</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.9094256162643432</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.261017680168152</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.120874315500259</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.274679899215698</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.4476115107536316</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.42144250869751</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3985895812511444</v>
       </c>
     </row>
   </sheetData>
